--- a/biology/Médecine/Yvonne_Cagle/Yvonne_Cagle.xlsx
+++ b/biology/Médecine/Yvonne_Cagle/Yvonne_Cagle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yvonne Darlene Cagle est une astronaute américaine née le 24 avril 1959 à West Point (New York).
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yvonne Cagle a reçu son baccalauréat en biochimie de l'Université d'État de San Francisco en 1981, et un doctorat en médecine de l'Université de Washington en 1985. En complément, elle a effectué un stage de transition à l'Hôpital général de Highland à Oakland en Californie en 1985 et a reçu un certificat en médecine aérospatiale de l'École de médecine aérospatiale de Brooks City-Base, au Texas, en 1988. Elle a ensuite terminé ses compétences en matière de médecine familiale à Ghent FP à l'Eastern Virginia Medical School en 1992 et a reçu la certification en tant que supérieur médecin examinateur de l'aviation de la Federal Aviation Administration en 1995.
-Yvonne Cagle a été membre du Groupe d'astronautes 16 (en 1996). Elle est actuellement affectée au Johnson Space Center's Space and Life Sciences Directorate[1].
+Yvonne Cagle a été membre du Groupe d'astronautes 16 (en 1996). Elle est actuellement affectée au Johnson Space Center's Space and Life Sciences Directorate.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
